--- a/リスト.xlsx
+++ b/リスト.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surfacepro2018\Documents\python_soba\upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surfacepro2018\Documents\python_soba\streamlit_sharing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84AA377-7FBE-41C1-9AE4-16BCF2D280BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2259ED7-BCBE-4BBD-8C95-3950882ED75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{0EDA8495-41B4-416F-A4E7-DA4863140DB0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="136">
   <si>
     <t>緯度</t>
     <rPh sb="0" eb="2">
@@ -246,13 +246,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>一茶庵</t>
-    <rPh sb="0" eb="3">
-      <t>イッサアン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エリア</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -606,6 +599,237 @@
   </si>
   <si>
     <t>ふじ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石庄庵</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風來蕎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>健生庵 山愚</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>純そば一風庵</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>島根県</t>
+    <rPh sb="0" eb="3">
+      <t>シマネケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中四国</t>
+    <rPh sb="0" eb="3">
+      <t>チュウシコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山県そば</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そば心 ゐ田</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>茨城県</t>
+    <rPh sb="0" eb="3">
+      <t>イバラキケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そば屋 長森</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新潟県</t>
+    <rPh sb="0" eb="3">
+      <t>ニイガタケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>艸季庵</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉笑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>祈年手打茶寮</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手打蕎麦 まるやま</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手打そば 吟</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石臼挽自家製粉 ふく田</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蕎麦切り こばやし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更科すず季</t>
+    <rPh sb="0" eb="2">
+      <t>サラシナ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名代生そば 由屋</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時香忘</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そば切り 山親爺</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>兵庫県</t>
+    <rPh sb="0" eb="3">
+      <t>ヒョウゴケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>てだこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>虎ノ門 砂場</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蕎麦切り 酒 大愚</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手打ち蕎麦 吉尾</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蕎麦ひら川</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川上そば 善慶庵</t>
+    <rPh sb="0" eb="2">
+      <t>カワカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蕎麦 藍</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>埼玉県</t>
+    <rPh sb="0" eb="3">
+      <t>サイタマケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手打そば 浅川</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>群馬県</t>
+    <rPh sb="0" eb="3">
+      <t>グンマケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京土山人</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東風庵</t>
+    <rPh sb="0" eb="3">
+      <t>コチアン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横浜元町一茶庵</t>
+    <rPh sb="0" eb="4">
+      <t>ヨコハマモトマチ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>イッサアン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>築地 布恒更科</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>眠庵</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三吉橋 小嶋屋</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蕎麦 案山子</t>
+    <rPh sb="0" eb="2">
+      <t>ソバ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>カカシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本むら庵</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>築地 えび金 本店</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利庵</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市川一茶庵</t>
+    <rPh sb="0" eb="2">
+      <t>イチカワ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>イッサアン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>麻布永坂 更科本店</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -652,11 +876,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -973,11 +1194,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22BC5988-34B5-4094-921D-947878CF9E06}">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -1001,21 +1222,21 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A2">
-        <v>35.244404262613799</v>
+        <v>35.4055725546784</v>
       </c>
       <c r="B2">
-        <v>138.86517831122799</v>
+        <v>139.23860483068501</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>33</v>
@@ -1023,101 +1244,101 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A3">
-        <v>35.613348812250003</v>
+        <v>35.5823047937685</v>
       </c>
       <c r="B3">
-        <v>139.64811360040099</v>
+        <v>139.55117522472801</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A4">
-        <v>26.207299632045</v>
+        <v>36.863210621181999</v>
       </c>
       <c r="B4">
-        <v>127.68001926898501</v>
+        <v>138.44509725544401</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A5">
-        <v>35.589849848300098</v>
+        <v>35.174540754848202</v>
       </c>
       <c r="B5">
-        <v>139.733960941921</v>
+        <v>133.08659939773301</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A6">
-        <v>33.477065862806498</v>
+        <v>35.192814778926497</v>
       </c>
       <c r="B6">
-        <v>130.70257186910601</v>
+        <v>133.12843571534199</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.7">
-      <c r="A7" s="1">
-        <v>33.260901654810901</v>
-      </c>
-      <c r="B7" s="1">
-        <v>130.54189741763301</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
+      <c r="A7">
+        <v>36.204799081784003</v>
+      </c>
+      <c r="B7">
+        <v>140.096685168921</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" t="s">
+        <v>99</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A8">
-        <v>33.4926387390421</v>
+        <v>37.108273687509502</v>
       </c>
       <c r="B8">
-        <v>130.31865621303899</v>
+        <v>138.93257442274199</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="E8" t="s">
         <v>35</v>
@@ -1125,373 +1346,373 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A9">
-        <v>35.696977375918998</v>
+        <v>35.292734763315899</v>
       </c>
       <c r="B9">
-        <v>139.75328439774501</v>
+        <v>138.918563684243</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A10">
-        <v>35.4472545866386</v>
+        <v>35.6646500782036</v>
       </c>
       <c r="B10">
-        <v>137.71983562657499</v>
+        <v>139.70473977079101</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A11">
-        <v>35.501667880240902</v>
+        <v>35.661855751719102</v>
       </c>
       <c r="B11">
-        <v>137.77969369589101</v>
+        <v>139.72268945552801</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A12">
-        <v>36.7473245102451</v>
+        <v>35.672586122707003</v>
       </c>
       <c r="B12">
-        <v>138.07743422660499</v>
+        <v>139.65927280507</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A13">
-        <v>35.397741687758099</v>
+        <v>35.738310685004301</v>
       </c>
       <c r="B13">
-        <v>139.48007193640399</v>
+        <v>139.48964582658201</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A14">
-        <v>35.644700505268197</v>
+        <v>35.244404262613799</v>
       </c>
       <c r="B14">
-        <v>139.72514091123699</v>
+        <v>138.86517831122799</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A15">
-        <v>34.684552025034598</v>
+        <v>35.130108220681798</v>
       </c>
       <c r="B15">
-        <v>135.49423026888601</v>
+        <v>138.86491956889699</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A16">
-        <v>35.348373250832097</v>
+        <v>35.195508621418597</v>
       </c>
       <c r="B16">
-        <v>139.477588782635</v>
+        <v>138.67891314705301</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A17">
-        <v>35.640295107257202</v>
+        <v>35.884298723438903</v>
       </c>
       <c r="B17">
-        <v>139.66885541123699</v>
+        <v>139.91183761309199</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A18">
-        <v>35.623646943459299</v>
+        <v>37.099107956692798</v>
       </c>
       <c r="B18">
-        <v>139.741577424729</v>
+        <v>138.732980660387</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A19">
-        <v>26.163310693347</v>
+        <v>35.921918048264999</v>
       </c>
       <c r="B19">
-        <v>127.70120322639301</v>
+        <v>137.675065526586</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A20">
-        <v>35.736554345938501</v>
+        <v>34.707151657952203</v>
       </c>
       <c r="B20">
-        <v>139.84612182658199</v>
+        <v>135.20217481114301</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A21">
-        <v>35.722799494995002</v>
+        <v>26.248371311738101</v>
       </c>
       <c r="B21">
-        <v>139.71248909774599</v>
+        <v>127.720636326394</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A22">
-        <v>38.209177052127501</v>
+        <v>35.668362713331803</v>
       </c>
       <c r="B22">
-        <v>140.09832526896901</v>
+        <v>139.75069184310399</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A23">
-        <v>38.452424912047199</v>
+        <v>35.667968688505198</v>
       </c>
       <c r="B23">
-        <v>139.99497891153601</v>
+        <v>139.75263941172801</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A24">
-        <v>38.177630817757297</v>
+        <v>33.556807469375897</v>
       </c>
       <c r="B24">
-        <v>140.30279262382001</v>
+        <v>130.40051659769699</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="D24" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A25">
-        <v>38.211534279756897</v>
+        <v>33.581372559702302</v>
       </c>
       <c r="B25">
-        <v>140.37479955385899</v>
+        <v>130.394422268862</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A26">
-        <v>35.786686492671699</v>
+        <v>35.964760988907699</v>
       </c>
       <c r="B26">
-        <v>139.439464910232</v>
+        <v>138.558920626587</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A27">
-        <v>35.681030846448998</v>
+        <v>36.186424255320503</v>
       </c>
       <c r="B27">
-        <v>139.76409756914899</v>
+        <v>139.37116564597699</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>121</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A28">
-        <v>33.1169977872459</v>
+        <v>36.402199951460297</v>
       </c>
       <c r="B28">
-        <v>131.12871008444199</v>
+        <v>139.08141658426899</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A29">
-        <v>33.067310511726198</v>
+        <v>35.6502632340612</v>
       </c>
       <c r="B29">
-        <v>131.14869035560599</v>
+        <v>139.69142456890799</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A30">
-        <v>35.8051793056473</v>
+        <v>35.669727284706497</v>
       </c>
       <c r="B30">
-        <v>137.24524236915201</v>
+        <v>139.76922222658001</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="E30" t="s">
         <v>33</v>
@@ -1499,169 +1720,169 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A31">
-        <v>36.3447832308957</v>
+        <v>35.4406937537319</v>
       </c>
       <c r="B31">
-        <v>137.83857645566999</v>
+        <v>139.649873655411</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A32">
-        <v>36.214638315070999</v>
+        <v>35.667917350841797</v>
       </c>
       <c r="B32">
-        <v>138.35813844032401</v>
+        <v>139.77023228425199</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A33">
-        <v>35.720504626859302</v>
+        <v>35.695525170821199</v>
       </c>
       <c r="B33">
-        <v>139.92801265541701</v>
+        <v>139.77075055541599</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="D33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A34">
-        <v>35.659362966688199</v>
+        <v>35.434480688112899</v>
       </c>
       <c r="B34">
-        <v>139.72766409488599</v>
+        <v>139.62960306890301</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="D34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A35">
-        <v>26.227007666954901</v>
+        <v>35.651477912713602</v>
       </c>
       <c r="B35">
-        <v>127.726608355492</v>
+        <v>139.75310741123701</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A36">
-        <v>35.666163708524799</v>
+        <v>35.704853946039002</v>
       </c>
       <c r="B36">
-        <v>139.76503246914899</v>
+        <v>139.61174549782899</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A37">
-        <v>33.499050862134098</v>
+        <v>35.613348812250003</v>
       </c>
       <c r="B37">
-        <v>130.07611845561399</v>
+        <v>139.64811360040099</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A38">
-        <v>35.001711671066602</v>
+        <v>26.207299632045</v>
       </c>
       <c r="B38">
-        <v>135.777300555643</v>
+        <v>127.68001926898501</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A39">
-        <v>35.001323171817802</v>
+        <v>35.589849848300098</v>
       </c>
       <c r="B39">
-        <v>135.756835455643</v>
+        <v>139.733960941921</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A40">
-        <v>35.572251166716804</v>
+        <v>33.477065862806498</v>
       </c>
       <c r="B40">
-        <v>139.73110188448999</v>
+        <v>130.70257186910601</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E40" t="s">
         <v>34</v>
@@ -1669,16 +1890,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A41">
-        <v>35.725853707793</v>
+        <v>33.260901654810901</v>
       </c>
       <c r="B41">
-        <v>139.53635744031399</v>
+        <v>130.54189741763301</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
         <v>34</v>
@@ -1686,16 +1907,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A42">
-        <v>35.4462898892575</v>
+        <v>33.4926387390421</v>
       </c>
       <c r="B42">
-        <v>139.64497827099501</v>
+        <v>130.31865621303899</v>
       </c>
       <c r="C42" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E42" t="s">
         <v>34</v>
@@ -1703,373 +1924,373 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A43">
-        <v>35.700985282944501</v>
+        <v>35.696977375918998</v>
       </c>
       <c r="B43">
-        <v>139.739529755657</v>
+        <v>139.75328439774501</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A44">
-        <v>35.668599270888201</v>
+        <v>35.4472545866386</v>
       </c>
       <c r="B44">
-        <v>139.770072697985</v>
+        <v>137.71983562657499</v>
       </c>
       <c r="C44" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A45">
-        <v>35.691307161306803</v>
+        <v>35.501667880240902</v>
       </c>
       <c r="B45">
-        <v>139.780150193444</v>
+        <v>137.77969369589101</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A46">
-        <v>35.340166973258697</v>
+        <v>36.7473245102451</v>
       </c>
       <c r="B46">
-        <v>139.121593426814</v>
+        <v>138.07743422660499</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A47">
-        <v>34.742787066736703</v>
+        <v>35.397741687758099</v>
       </c>
       <c r="B47">
-        <v>135.49532122680199</v>
+        <v>139.48007193640399</v>
       </c>
       <c r="C47" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="D47" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A48">
-        <v>35.013738730403801</v>
+        <v>35.664148646218898</v>
       </c>
       <c r="B48">
-        <v>135.76115422218001</v>
+        <v>139.771521440073</v>
       </c>
       <c r="C48" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="D48" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="E48" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A49">
-        <v>35.031546765155497</v>
+        <v>35.644700505268197</v>
       </c>
       <c r="B49">
-        <v>135.74698089797201</v>
+        <v>139.72514091123699</v>
       </c>
       <c r="C49" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="E49" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A50">
-        <v>26.696686270792799</v>
+        <v>35.637638315103402</v>
       </c>
       <c r="B50">
-        <v>127.94142781132</v>
+        <v>139.72350552658</v>
       </c>
       <c r="C50" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="D50" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A51">
-        <v>34.893277580541003</v>
+        <v>34.684552025034598</v>
       </c>
       <c r="B51">
-        <v>135.80762634029699</v>
+        <v>135.49423026888601</v>
       </c>
       <c r="C51" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="D51" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A52">
-        <v>34.8210624125389</v>
+        <v>35.348373250832097</v>
       </c>
       <c r="B52">
-        <v>135.77411641146</v>
+        <v>139.477588782635</v>
       </c>
       <c r="C52" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A53">
-        <v>35.017423440680403</v>
+        <v>35.640295107257202</v>
       </c>
       <c r="B53">
-        <v>135.76554859797201</v>
+        <v>139.66885541123699</v>
       </c>
       <c r="C53" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="D53" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A54">
-        <v>35.0122067683644</v>
+        <v>35.623646943459299</v>
       </c>
       <c r="B54">
-        <v>135.76037226809601</v>
+        <v>139.741577424729</v>
       </c>
       <c r="C54" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="D54" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A55">
-        <v>35.460810294653797</v>
+        <v>26.163310693347</v>
       </c>
       <c r="B55">
-        <v>139.620100355652</v>
+        <v>127.70120322639301</v>
       </c>
       <c r="C55" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E55" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A56">
-        <v>35.401685284244103</v>
+        <v>35.736554345938501</v>
       </c>
       <c r="B56">
-        <v>139.55576078263601</v>
+        <v>139.84612182658199</v>
       </c>
       <c r="C56" t="s">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A57">
-        <v>35.688472373782901</v>
+        <v>35.722799494995002</v>
       </c>
       <c r="B57">
-        <v>139.798438840313</v>
+        <v>139.71248909774599</v>
       </c>
       <c r="C57" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
       </c>
       <c r="E57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A58">
-        <v>34.676601436123498</v>
+        <v>38.209177052127501</v>
       </c>
       <c r="B58">
-        <v>135.516068784472</v>
+        <v>140.09832526896901</v>
       </c>
       <c r="C58" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="D58" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A59">
-        <v>34.655777887835796</v>
+        <v>38.452424912047199</v>
       </c>
       <c r="B59">
-        <v>135.51411141145701</v>
+        <v>139.99497891153601</v>
       </c>
       <c r="C59" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="D59" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="E59" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A60">
-        <v>35.710302030071901</v>
+        <v>38.177630817757297</v>
       </c>
       <c r="B60">
-        <v>139.77547879433001</v>
+        <v>140.30279262382001</v>
       </c>
       <c r="C60" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="D60" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E60" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A61">
-        <v>35.689605782144703</v>
+        <v>38.211534279756897</v>
       </c>
       <c r="B61">
-        <v>139.77175034031299</v>
+        <v>140.37479955385899</v>
       </c>
       <c r="C61" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="D61" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E61" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A62">
-        <v>36.445805720334199</v>
+        <v>35.786686492671699</v>
       </c>
       <c r="B62">
-        <v>136.634626755672</v>
+        <v>139.439464910232</v>
       </c>
       <c r="C62" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="D62" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A63">
-        <v>36.316330053086801</v>
+        <v>35.681030846448998</v>
       </c>
       <c r="B63">
-        <v>136.612678224983</v>
+        <v>139.76409756914899</v>
       </c>
       <c r="C63" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="D63" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A64">
-        <v>35.709872647977903</v>
+        <v>33.1169977872459</v>
       </c>
       <c r="B64">
-        <v>139.79598611332901</v>
+        <v>131.12871008444199</v>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D64" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="E64" t="s">
         <v>34</v>
@@ -2077,70 +2298,699 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A65">
-        <v>35.050681091923401</v>
+        <v>33.067310511726198</v>
       </c>
       <c r="B65">
-        <v>135.548997255644</v>
+        <v>131.14869035560599</v>
       </c>
       <c r="C65" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="D65" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A66">
-        <v>35.698180812721901</v>
+        <v>35.8051793056473</v>
       </c>
       <c r="B66">
-        <v>139.73409345565699</v>
+        <v>137.24524236915201</v>
       </c>
       <c r="C66" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="E66" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A67">
-        <v>35.705827961897398</v>
+        <v>36.3447832308957</v>
       </c>
       <c r="B67">
-        <v>139.75469064909799</v>
+        <v>137.83857645566999</v>
       </c>
       <c r="C67" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A68">
+        <v>36.214638315070999</v>
+      </c>
+      <c r="B68">
+        <v>138.35813844032401</v>
+      </c>
+      <c r="C68" t="s">
+        <v>53</v>
+      </c>
+      <c r="D68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A69">
+        <v>35.720504626859302</v>
+      </c>
+      <c r="B69">
+        <v>139.92801265541701</v>
+      </c>
+      <c r="C69" t="s">
+        <v>134</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A70">
+        <v>35.659362966688199</v>
+      </c>
+      <c r="B70">
+        <v>139.72766409488599</v>
+      </c>
+      <c r="C70" t="s">
+        <v>54</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A71">
+        <v>26.227007666954901</v>
+      </c>
+      <c r="B71">
+        <v>127.726608355492</v>
+      </c>
+      <c r="C71" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A72">
+        <v>35.666163708524799</v>
+      </c>
+      <c r="B72">
+        <v>139.76503246914899</v>
+      </c>
+      <c r="C72" t="s">
+        <v>56</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A73">
+        <v>33.499050862134098</v>
+      </c>
+      <c r="B73">
+        <v>130.07611845561399</v>
+      </c>
+      <c r="C73" t="s">
+        <v>57</v>
+      </c>
+      <c r="D73" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A74">
+        <v>35.001711671066602</v>
+      </c>
+      <c r="B74">
+        <v>135.777300555643</v>
+      </c>
+      <c r="C74" t="s">
+        <v>58</v>
+      </c>
+      <c r="D74" t="s">
+        <v>59</v>
+      </c>
+      <c r="E74" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A75">
+        <v>35.001323171817802</v>
+      </c>
+      <c r="B75">
+        <v>135.756835455643</v>
+      </c>
+      <c r="C75" t="s">
+        <v>60</v>
+      </c>
+      <c r="D75" t="s">
+        <v>59</v>
+      </c>
+      <c r="E75" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A76">
+        <v>35.572251166716804</v>
+      </c>
+      <c r="B76">
+        <v>139.73110188448999</v>
+      </c>
+      <c r="C76" t="s">
+        <v>61</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A77">
+        <v>35.725853707793</v>
+      </c>
+      <c r="B77">
+        <v>139.53635744031399</v>
+      </c>
+      <c r="C77" t="s">
+        <v>62</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A78">
+        <v>35.4462898892575</v>
+      </c>
+      <c r="B78">
+        <v>139.64497827099501</v>
+      </c>
+      <c r="C78" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A79">
+        <v>35.700985282944501</v>
+      </c>
+      <c r="B79">
+        <v>139.739529755657</v>
+      </c>
+      <c r="C79" t="s">
+        <v>64</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A80">
+        <v>35.668599270888201</v>
+      </c>
+      <c r="B80">
+        <v>139.770072697985</v>
+      </c>
+      <c r="C80" t="s">
+        <v>66</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A81">
+        <v>35.691307161306803</v>
+      </c>
+      <c r="B81">
+        <v>139.780150193444</v>
+      </c>
+      <c r="C81" t="s">
+        <v>67</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A82">
+        <v>35.340166973258697</v>
+      </c>
+      <c r="B82">
+        <v>139.121593426814</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A83">
+        <v>34.742787066736703</v>
+      </c>
+      <c r="B83">
+        <v>135.49532122680199</v>
+      </c>
+      <c r="C83" t="s">
+        <v>69</v>
+      </c>
+      <c r="D83" t="s">
+        <v>22</v>
+      </c>
+      <c r="E83" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A84">
+        <v>35.013738730403801</v>
+      </c>
+      <c r="B84">
+        <v>135.76115422218001</v>
+      </c>
+      <c r="C84" t="s">
+        <v>70</v>
+      </c>
+      <c r="D84" t="s">
+        <v>59</v>
+      </c>
+      <c r="E84" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A85">
+        <v>35.031546765155497</v>
+      </c>
+      <c r="B85">
+        <v>135.74698089797201</v>
+      </c>
+      <c r="C85" t="s">
+        <v>71</v>
+      </c>
+      <c r="D85" t="s">
+        <v>59</v>
+      </c>
+      <c r="E85" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A86">
+        <v>26.696686270792799</v>
+      </c>
+      <c r="B86">
+        <v>127.94142781132</v>
+      </c>
+      <c r="C86" t="s">
+        <v>72</v>
+      </c>
+      <c r="D86" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A87">
+        <v>34.893277580541003</v>
+      </c>
+      <c r="B87">
+        <v>135.80762634029699</v>
+      </c>
+      <c r="C87" t="s">
+        <v>73</v>
+      </c>
+      <c r="D87" t="s">
+        <v>59</v>
+      </c>
+      <c r="E87" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A88">
+        <v>34.8210624125389</v>
+      </c>
+      <c r="B88">
+        <v>135.77411641146</v>
+      </c>
+      <c r="C88" t="s">
+        <v>74</v>
+      </c>
+      <c r="D88" t="s">
+        <v>59</v>
+      </c>
+      <c r="E88" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A89">
+        <v>35.017423440680403</v>
+      </c>
+      <c r="B89">
+        <v>135.76554859797201</v>
+      </c>
+      <c r="C89" t="s">
+        <v>75</v>
+      </c>
+      <c r="D89" t="s">
+        <v>59</v>
+      </c>
+      <c r="E89" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A90">
+        <v>35.0122067683644</v>
+      </c>
+      <c r="B90">
+        <v>135.76037226809601</v>
+      </c>
+      <c r="C90" t="s">
+        <v>76</v>
+      </c>
+      <c r="D90" t="s">
+        <v>59</v>
+      </c>
+      <c r="E90" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A91">
+        <v>35.460810294653797</v>
+      </c>
+      <c r="B91">
+        <v>139.620100355652</v>
+      </c>
+      <c r="C91" t="s">
+        <v>77</v>
+      </c>
+      <c r="D91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A92">
+        <v>35.401685284244103</v>
+      </c>
+      <c r="B92">
+        <v>139.55576078263601</v>
+      </c>
+      <c r="C92" t="s">
+        <v>78</v>
+      </c>
+      <c r="D92" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A93">
+        <v>35.688472373782901</v>
+      </c>
+      <c r="B93">
+        <v>139.798438840313</v>
+      </c>
+      <c r="C93" t="s">
+        <v>79</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A94">
+        <v>34.676601436123498</v>
+      </c>
+      <c r="B94">
+        <v>135.516068784472</v>
+      </c>
+      <c r="C94" t="s">
+        <v>80</v>
+      </c>
+      <c r="D94" t="s">
+        <v>22</v>
+      </c>
+      <c r="E94" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A95">
+        <v>34.655777887835796</v>
+      </c>
+      <c r="B95">
+        <v>135.51411141145701</v>
+      </c>
+      <c r="C95" t="s">
+        <v>81</v>
+      </c>
+      <c r="D95" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A96">
+        <v>35.710302030071901</v>
+      </c>
+      <c r="B96">
+        <v>139.77547879433001</v>
+      </c>
+      <c r="C96" t="s">
+        <v>82</v>
+      </c>
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A97">
+        <v>35.689605782144703</v>
+      </c>
+      <c r="B97">
+        <v>139.77175034031299</v>
+      </c>
+      <c r="C97" t="s">
+        <v>83</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A98">
+        <v>36.445805720334199</v>
+      </c>
+      <c r="B98">
+        <v>136.634626755672</v>
+      </c>
+      <c r="C98" t="s">
+        <v>84</v>
+      </c>
+      <c r="D98" t="s">
+        <v>85</v>
+      </c>
+      <c r="E98" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A99">
+        <v>36.316330053086801</v>
+      </c>
+      <c r="B99">
+        <v>136.612678224983</v>
+      </c>
+      <c r="C99" t="s">
+        <v>86</v>
+      </c>
+      <c r="D99" t="s">
+        <v>85</v>
+      </c>
+      <c r="E99" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A100">
+        <v>35.709872647977903</v>
+      </c>
+      <c r="B100">
+        <v>139.79598611332901</v>
+      </c>
+      <c r="C100" t="s">
+        <v>65</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A101">
+        <v>35.050681091923401</v>
+      </c>
+      <c r="B101">
+        <v>135.548997255644</v>
+      </c>
+      <c r="C101" t="s">
+        <v>87</v>
+      </c>
+      <c r="D101" t="s">
+        <v>59</v>
+      </c>
+      <c r="E101" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A102">
+        <v>35.698180812721901</v>
+      </c>
+      <c r="B102">
+        <v>139.73409345565699</v>
+      </c>
+      <c r="C102" t="s">
+        <v>88</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A103">
+        <v>35.705827961897398</v>
+      </c>
+      <c r="B103">
+        <v>139.75469064909799</v>
+      </c>
+      <c r="C103" t="s">
+        <v>89</v>
+      </c>
+      <c r="D103" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A104">
         <v>35.526452344767101</v>
       </c>
-      <c r="B68">
+      <c r="B104">
         <v>139.70292429798201</v>
       </c>
-      <c r="C68" t="s">
-        <v>91</v>
-      </c>
-      <c r="D68" t="s">
+      <c r="C104" t="s">
+        <v>90</v>
+      </c>
+      <c r="D104" t="s">
         <v>9</v>
       </c>
-      <c r="E68" t="s">
-        <v>34</v>
+      <c r="E104" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.7">
+      <c r="A105">
+        <v>35.6568459208004</v>
+      </c>
+      <c r="B105">
+        <v>139.73676539774399</v>
+      </c>
+      <c r="C105" t="s">
+        <v>135</v>
+      </c>
+      <c r="D105" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
